--- a/New files/Pomona Valley Hospital Medical Center/10204878 Pomona Valley Hospital Medical Center.xlsx
+++ b/New files/Pomona Valley Hospital Medical Center/10204878 Pomona Valley Hospital Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A46E0C1D-DDD1-4AD5-A4FC-7656B2AAF372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A6FD0B-401D-435A-B05C-DC8B7C947624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{633382B5-52D3-4895-A4F6-FAF9DFF8C975}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{20D9C2AE-E3DF-4321-9826-DCA0A559B9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -847,20 +847,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909CD92F-3018-AA67-A096-E2BF3856018B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0665B5BA-5849-D60B-2042-543AB54DB149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F958D83A-1E80-4974-9474-635EA0602406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FF9A45-F055-414D-AF1A-571E720E9E27}">
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1221,12 +1221,12 @@
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2623,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C38830-0234-46B2-93C9-806C0959E88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C82E59F-5D0B-4564-8643-57C5B71E434F}">
   <dimension ref="A1:P510"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2634,8 +2634,8 @@
     <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
